--- a/biology/Botanique/Potentille_de_printemps/Potentille_de_printemps.xlsx
+++ b/biology/Botanique/Potentille_de_printemps/Potentille_de_printemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentilla verna, la potentille printanière, est une espèce de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace.
 </t>
@@ -544,12 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taxinomie et nomenclature
-Le nom Potentilla verna a été conservé sur proposition de Jiří Soják en 2009[1] et validé par le Congrès international de botanique en 2011[2].
-Synonymes
-Potentilla tabernaemontani Asch.
-Potentilla verna L. ssp. saxatilis (Boulay) Nyman
-Potentilla neumanniana Rchb.</t>
+          <t>Taxinomie et nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Potentilla verna a été conservé sur proposition de Jiří Soják en 2009 et validé par le Congrès international de botanique en 2011.
+</t>
         </is>
       </c>
     </row>
@@ -574,13 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Espèce proche</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon info flora, le Centre national de données et d'informations sur la flore de Suisse, Potentilla pusilla Host, appelée petite potentille, est considérée comme espèce très proche de la potentille printanière[3].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Potentilla tabernaemontani Asch.
+Potentilla verna L. ssp. saxatilis (Boulay) Nyman
+Potentilla neumanniana Rchb.</t>
         </is>
       </c>
     </row>
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon info flora, le Centre national de données et d'informations sur la flore de Suisse, Potentilla pusilla Host, appelée petite potentille, est considérée comme espèce très proche de la potentille printanière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Potentille_de_printemps</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentille_de_printemps</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée dans le Nord-Pas-de-Calais. Elle figure sur la liste rouge des plantes régionale.
 </t>
